--- a/results/Players_2024-06-12.xlsx
+++ b/results/Players_2024-06-12.xlsx
@@ -2431,7 +2431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG9"/>
+  <dimension ref="A1:AG11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3513,6 +3513,224 @@
         <v>0</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>l5wI2JfWIgYucm9-vB7sMzcKWZGxhlnbMedOPGH4YozKJ8EMT3alTxM0cYTUWbY2YiDke2vd67JfqA</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>HPZ Tea Jay</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Malphite</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>TOP</t>
+        </is>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="G10" t="n">
+        <v>16</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>7</v>
+      </c>
+      <c r="J10" t="n">
+        <v>6</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="M10" t="n">
+        <v>161</v>
+      </c>
+      <c r="N10" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="O10" t="n">
+        <v>88</v>
+      </c>
+      <c r="P10" t="n">
+        <v>-46</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>9653</v>
+      </c>
+      <c r="R10" t="n">
+        <v>279.06</v>
+      </c>
+      <c r="S10" t="n">
+        <v>15898</v>
+      </c>
+      <c r="T10" t="n">
+        <v>459.58</v>
+      </c>
+      <c r="U10" t="n">
+        <v>14</v>
+      </c>
+      <c r="V10" t="n">
+        <v>20</v>
+      </c>
+      <c r="W10" t="b">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>614</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>l5wI2JfWIgYucm9-vB7sMzcKWZGxhlnbMedOPGH4YozKJ8EMT3alTxM0cYTUWbY2YiDke2vd67JfqA</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>HPZ Tea Jay</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>JarvanIV</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>TOP</t>
+        </is>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="G11" t="n">
+        <v>17</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3</v>
+      </c>
+      <c r="J11" t="n">
+        <v>9</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="M11" t="n">
+        <v>196</v>
+      </c>
+      <c r="N11" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="O11" t="n">
+        <v>110</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-33</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>12081</v>
+      </c>
+      <c r="R11" t="n">
+        <v>400.06</v>
+      </c>
+      <c r="S11" t="n">
+        <v>15883</v>
+      </c>
+      <c r="T11" t="n">
+        <v>525.98</v>
+      </c>
+      <c r="U11" t="n">
+        <v>16</v>
+      </c>
+      <c r="V11" t="n">
+        <v>24</v>
+      </c>
+      <c r="W11" t="b">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>325</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3524,7 +3742,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG9"/>
+  <dimension ref="A1:AG11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4606,6 +4824,224 @@
         <v>0</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>h1F3QmjMT8BVvHVbq4dRdFVyKAB8tj1rgmu-AXI9w5ViWeyHX3D5HxF72UNkui9X82cRJDRhEJ-WJQ</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>JustaWittleGuy</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Trundle</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>JUNGLE</t>
+        </is>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="G10" t="n">
+        <v>18</v>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>8</v>
+      </c>
+      <c r="K10" t="n">
+        <v>7</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="M10" t="n">
+        <v>263</v>
+      </c>
+      <c r="N10" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="O10" t="n">
+        <v>89</v>
+      </c>
+      <c r="P10" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>15773</v>
+      </c>
+      <c r="R10" t="n">
+        <v>455.99</v>
+      </c>
+      <c r="S10" t="n">
+        <v>20754</v>
+      </c>
+      <c r="T10" t="n">
+        <v>599.96</v>
+      </c>
+      <c r="U10" t="n">
+        <v>18</v>
+      </c>
+      <c r="V10" t="n">
+        <v>36</v>
+      </c>
+      <c r="W10" t="b">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>379</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>h1F3QmjMT8BVvHVbq4dRdFVyKAB8tj1rgmu-AXI9w5ViWeyHX3D5HxF72UNkui9X82cRJDRhEJ-WJQ</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>JustaWittleGuy</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Ivern</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>JUNGLE</t>
+        </is>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="G11" t="n">
+        <v>18</v>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>14</v>
+      </c>
+      <c r="K11" t="n">
+        <v>22</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="M11" t="n">
+        <v>212</v>
+      </c>
+      <c r="N11" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="O11" t="n">
+        <v>90</v>
+      </c>
+      <c r="P11" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>14070</v>
+      </c>
+      <c r="R11" t="n">
+        <v>465.93</v>
+      </c>
+      <c r="S11" t="n">
+        <v>19583</v>
+      </c>
+      <c r="T11" t="n">
+        <v>648.49</v>
+      </c>
+      <c r="U11" t="n">
+        <v>20</v>
+      </c>
+      <c r="V11" t="n">
+        <v>20</v>
+      </c>
+      <c r="W11" t="b">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>301</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>9459</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4617,7 +5053,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG9"/>
+  <dimension ref="A1:AG11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4627,7 +5063,7 @@
   <cols>
     <col hidden="1" width="82" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
     <col width="10" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
@@ -5699,6 +6135,224 @@
         <v>0</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>OLojmaBUPPMqjbCCCMAahsssNRDMDgcFOWOaPAHljrRP-zzr02lHc5Qa9sqRsIo7pf4NY760BoV68w</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CrimsonYoni</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Brand</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>MIDDLE</t>
+        </is>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="G10" t="n">
+        <v>18</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>8</v>
+      </c>
+      <c r="K10" t="n">
+        <v>12</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="M10" t="n">
+        <v>246</v>
+      </c>
+      <c r="N10" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="O10" t="n">
+        <v>112</v>
+      </c>
+      <c r="P10" t="n">
+        <v>-29</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>12847</v>
+      </c>
+      <c r="R10" t="n">
+        <v>371.4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>33267</v>
+      </c>
+      <c r="T10" t="n">
+        <v>961.7</v>
+      </c>
+      <c r="U10" t="n">
+        <v>29</v>
+      </c>
+      <c r="V10" t="n">
+        <v>11</v>
+      </c>
+      <c r="W10" t="b">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>OLojmaBUPPMqjbCCCMAahsssNRDMDgcFOWOaPAHljrRP-zzr02lHc5Qa9sqRsIo7pf4NY760BoV68w</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CrimsonYoni</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>AurelionSol</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>MIDDLE</t>
+        </is>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="G11" t="n">
+        <v>16</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="M11" t="n">
+        <v>226</v>
+      </c>
+      <c r="N11" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="O11" t="n">
+        <v>112</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>11350</v>
+      </c>
+      <c r="R11" t="n">
+        <v>375.88</v>
+      </c>
+      <c r="S11" t="n">
+        <v>24967</v>
+      </c>
+      <c r="T11" t="n">
+        <v>826.78</v>
+      </c>
+      <c r="U11" t="n">
+        <v>25</v>
+      </c>
+      <c r="V11" t="n">
+        <v>17</v>
+      </c>
+      <c r="W11" t="b">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>265</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5710,7 +6364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG9"/>
+  <dimension ref="A1:AG11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6792,6 +7446,224 @@
         <v>0</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ab4gQ5K2q9dFtLhWtZ7s8jTUa0MCQ_IdT9DteNLPsgujzYISxj7cPQ-1DpPZcg-iBv9rTn1t7i6xKg</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>agateo</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Tristana</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>BOTTOM</t>
+        </is>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="G10" t="n">
+        <v>16</v>
+      </c>
+      <c r="H10" t="n">
+        <v>11</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>13</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="M10" t="n">
+        <v>299</v>
+      </c>
+      <c r="N10" t="n">
+        <v>8.640000000000001</v>
+      </c>
+      <c r="O10" t="n">
+        <v>114</v>
+      </c>
+      <c r="P10" t="n">
+        <v>44</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>17260</v>
+      </c>
+      <c r="R10" t="n">
+        <v>498.95</v>
+      </c>
+      <c r="S10" t="n">
+        <v>35638</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1030.22</v>
+      </c>
+      <c r="U10" t="n">
+        <v>31</v>
+      </c>
+      <c r="V10" t="n">
+        <v>16</v>
+      </c>
+      <c r="W10" t="b">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>168</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ab4gQ5K2q9dFtLhWtZ7s8jTUa0MCQ_IdT9DteNLPsgujzYISxj7cPQ-1DpPZcg-iBv9rTn1t7i6xKg</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>agateo</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Sivir</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>BOTTOM</t>
+        </is>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="G11" t="n">
+        <v>15</v>
+      </c>
+      <c r="H11" t="n">
+        <v>12</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>6</v>
+      </c>
+      <c r="K11" t="n">
+        <v>18</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M11" t="n">
+        <v>243</v>
+      </c>
+      <c r="N11" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="O11" t="n">
+        <v>110</v>
+      </c>
+      <c r="P11" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>16865</v>
+      </c>
+      <c r="R11" t="n">
+        <v>558.49</v>
+      </c>
+      <c r="S11" t="n">
+        <v>30768</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1018.89</v>
+      </c>
+      <c r="U11" t="n">
+        <v>31</v>
+      </c>
+      <c r="V11" t="n">
+        <v>17</v>
+      </c>
+      <c r="W11" t="b">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>43</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6803,7 +7675,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG9"/>
+  <dimension ref="A1:AG11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7882,6 +8754,224 @@
         <v>2139</v>
       </c>
       <c r="AG9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>xzdrsAzMMae3GTrUzEov6J_BTo7vceWI-MLu080uVo9rGydkcQ1wHqSDI_woNQDrTMjOxJuN4w4EnQ</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Abraxo</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Taric</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>UTILITY</t>
+        </is>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="G10" t="n">
+        <v>15</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3</v>
+      </c>
+      <c r="J10" t="n">
+        <v>18</v>
+      </c>
+      <c r="K10" t="n">
+        <v>6</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="M10" t="n">
+        <v>41</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="O10" t="n">
+        <v>25</v>
+      </c>
+      <c r="P10" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>9292</v>
+      </c>
+      <c r="R10" t="n">
+        <v>268.63</v>
+      </c>
+      <c r="S10" t="n">
+        <v>7680</v>
+      </c>
+      <c r="T10" t="n">
+        <v>222.02</v>
+      </c>
+      <c r="U10" t="n">
+        <v>7</v>
+      </c>
+      <c r="V10" t="n">
+        <v>16</v>
+      </c>
+      <c r="W10" t="b">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>142</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>15613</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>xzdrsAzMMae3GTrUzEov6J_BTo7vceWI-MLu080uVo9rGydkcQ1wHqSDI_woNQDrTMjOxJuN4w4EnQ</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Abraxo</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Thresh</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>UTILITY</t>
+        </is>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="G11" t="n">
+        <v>14</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>16</v>
+      </c>
+      <c r="K11" t="n">
+        <v>17</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="M11" t="n">
+        <v>22</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="O11" t="n">
+        <v>9</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-16</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>8942</v>
+      </c>
+      <c r="R11" t="n">
+        <v>296.12</v>
+      </c>
+      <c r="S11" t="n">
+        <v>7989</v>
+      </c>
+      <c r="T11" t="n">
+        <v>264.58</v>
+      </c>
+      <c r="U11" t="n">
+        <v>8</v>
+      </c>
+      <c r="V11" t="n">
+        <v>22</v>
+      </c>
+      <c r="W11" t="b">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>72</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>105</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>1265</v>
+      </c>
+      <c r="AG11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22998,7 +24088,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG7"/>
+  <dimension ref="A1:AG9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23862,6 +24952,224 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>y_RWP9uZssHJZTItE8dOqWi-Eytp7FFK7jOHhvduMvW1X4ez3sqo8WFVd1FUOf6wPCWp9Xxvien-Jg</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Oasis Whisper</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Maokai</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>JUNGLE</t>
+        </is>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="G8" t="n">
+        <v>15</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3</v>
+      </c>
+      <c r="J8" t="n">
+        <v>10</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="M8" t="n">
+        <v>199</v>
+      </c>
+      <c r="N8" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="O8" t="n">
+        <v>81</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-8</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>11236</v>
+      </c>
+      <c r="R8" t="n">
+        <v>324.81</v>
+      </c>
+      <c r="S8" t="n">
+        <v>21689</v>
+      </c>
+      <c r="T8" t="n">
+        <v>626.99</v>
+      </c>
+      <c r="U8" t="n">
+        <v>23</v>
+      </c>
+      <c r="V8" t="n">
+        <v>28</v>
+      </c>
+      <c r="W8" t="b">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>22</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>656</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>292</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>y_RWP9uZssHJZTItE8dOqWi-Eytp7FFK7jOHhvduMvW1X4ez3sqo8WFVd1FUOf6wPCWp9Xxvien-Jg</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Oasis Whisper</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Volibear</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>JUNGLE</t>
+        </is>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="G9" t="n">
+        <v>14</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="M9" t="n">
+        <v>161</v>
+      </c>
+      <c r="N9" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="O9" t="n">
+        <v>84</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-6</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>10085</v>
+      </c>
+      <c r="R9" t="n">
+        <v>333.98</v>
+      </c>
+      <c r="S9" t="n">
+        <v>7646</v>
+      </c>
+      <c r="T9" t="n">
+        <v>253.22</v>
+      </c>
+      <c r="U9" t="n">
+        <v>11</v>
+      </c>
+      <c r="V9" t="n">
+        <v>24</v>
+      </c>
+      <c r="W9" t="b">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>27</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>433</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -23873,7 +25181,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG7"/>
+  <dimension ref="A1:AG9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24737,6 +26045,224 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>_-BpcF4ja-CAlct-3x-tMzuW7EGaBofNhxTDUBXt4ubMhote0dNsN37xa1RPsYSvyqLp2BN31DzPcg</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hope</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Azir</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>MIDDLE</t>
+        </is>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="G8" t="n">
+        <v>16</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="M8" t="n">
+        <v>273</v>
+      </c>
+      <c r="N8" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="O8" t="n">
+        <v>141</v>
+      </c>
+      <c r="P8" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>11681</v>
+      </c>
+      <c r="R8" t="n">
+        <v>337.7</v>
+      </c>
+      <c r="S8" t="n">
+        <v>14710</v>
+      </c>
+      <c r="T8" t="n">
+        <v>425.25</v>
+      </c>
+      <c r="U8" t="n">
+        <v>16</v>
+      </c>
+      <c r="V8" t="n">
+        <v>14</v>
+      </c>
+      <c r="W8" t="b">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>104</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>_-BpcF4ja-CAlct-3x-tMzuW7EGaBofNhxTDUBXt4ubMhote0dNsN37xa1RPsYSvyqLp2BN31DzPcg</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hope</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ryze</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>MIDDLE</t>
+        </is>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="G9" t="n">
+        <v>17</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="M9" t="n">
+        <v>220</v>
+      </c>
+      <c r="N9" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="O9" t="n">
+        <v>112</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>10770</v>
+      </c>
+      <c r="R9" t="n">
+        <v>356.68</v>
+      </c>
+      <c r="S9" t="n">
+        <v>14229</v>
+      </c>
+      <c r="T9" t="n">
+        <v>471.19</v>
+      </c>
+      <c r="U9" t="n">
+        <v>21</v>
+      </c>
+      <c r="V9" t="n">
+        <v>19</v>
+      </c>
+      <c r="W9" t="b">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>39</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -24748,7 +26274,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG7"/>
+  <dimension ref="A1:AG9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25612,6 +27138,224 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>rBA9IzyU1Oi5Ioyx2J72DsveUj8v-yQlj5rT8mpmIXwcQeDpeYGMPxkBFPbY_eDvh0zEY1ZEGobOfA</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bassoon III</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Caitlyn</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>BOTTOM</t>
+        </is>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="G8" t="n">
+        <v>14</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="M8" t="n">
+        <v>173</v>
+      </c>
+      <c r="N8" t="n">
+        <v>5</v>
+      </c>
+      <c r="O8" t="n">
+        <v>70</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-44</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>11057</v>
+      </c>
+      <c r="R8" t="n">
+        <v>319.65</v>
+      </c>
+      <c r="S8" t="n">
+        <v>12945</v>
+      </c>
+      <c r="T8" t="n">
+        <v>374.23</v>
+      </c>
+      <c r="U8" t="n">
+        <v>14</v>
+      </c>
+      <c r="V8" t="n">
+        <v>9</v>
+      </c>
+      <c r="W8" t="b">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>33</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>111</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>658</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>rBA9IzyU1Oi5Ioyx2J72DsveUj8v-yQlj5rT8mpmIXwcQeDpeYGMPxkBFPbY_eDvh0zEY1ZEGobOfA</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bassoon III</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Caitlyn</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>BOTTOM</t>
+        </is>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="G9" t="n">
+        <v>13</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>6</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="M9" t="n">
+        <v>158</v>
+      </c>
+      <c r="N9" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="O9" t="n">
+        <v>77</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-33</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>9431</v>
+      </c>
+      <c r="R9" t="n">
+        <v>312.34</v>
+      </c>
+      <c r="S9" t="n">
+        <v>9888</v>
+      </c>
+      <c r="T9" t="n">
+        <v>327.45</v>
+      </c>
+      <c r="U9" t="n">
+        <v>15</v>
+      </c>
+      <c r="V9" t="n">
+        <v>12</v>
+      </c>
+      <c r="W9" t="b">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>52</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>471</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25623,7 +27367,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG7"/>
+  <dimension ref="A1:AG9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26484,6 +28228,224 @@
         <v>2601</v>
       </c>
       <c r="AG7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>p3UpxAQMc52trAlV2Y2GxrgBYU8OYHNJDeZlm3cueaCtuQpxGpPUyBVhnwOCNQFdsFNnZbuQ9YTX8g</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Daal</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Velkoz</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>UTILITY</t>
+        </is>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="G8" t="n">
+        <v>14</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" t="n">
+        <v>7</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>49</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="O8" t="n">
+        <v>14</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-11</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>9126</v>
+      </c>
+      <c r="R8" t="n">
+        <v>263.83</v>
+      </c>
+      <c r="S8" t="n">
+        <v>18306</v>
+      </c>
+      <c r="T8" t="n">
+        <v>529.21</v>
+      </c>
+      <c r="U8" t="n">
+        <v>19</v>
+      </c>
+      <c r="V8" t="n">
+        <v>5</v>
+      </c>
+      <c r="W8" t="b">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>76</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>228</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>p3UpxAQMc52trAlV2Y2GxrgBYU8OYHNJDeZlm3cueaCtuQpxGpPUyBVhnwOCNQFdsFNnZbuQ9YTX8g</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Daal</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Velkoz</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>UTILITY</t>
+        </is>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="G9" t="n">
+        <v>12</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="M9" t="n">
+        <v>51</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="O9" t="n">
+        <v>25</v>
+      </c>
+      <c r="P9" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>7014</v>
+      </c>
+      <c r="R9" t="n">
+        <v>232.27</v>
+      </c>
+      <c r="S9" t="n">
+        <v>18888</v>
+      </c>
+      <c r="T9" t="n">
+        <v>625.49</v>
+      </c>
+      <c r="U9" t="n">
+        <v>28</v>
+      </c>
+      <c r="V9" t="n">
+        <v>9</v>
+      </c>
+      <c r="W9" t="b">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>53</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>218</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27155,7 +29117,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG3"/>
+  <dimension ref="A1:AG5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27580,6 +29542,224 @@
         <v>0</v>
       </c>
       <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>OMb9S_LJfcHcmNf2EeoK6oKVZPN_ilQ_atdZLBHcS-1cNv38UZObF9COSP54dJn9eD4-mP23xpHUug</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>IAMYOURFATHER</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Sion</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>TOP</t>
+        </is>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="G4" t="n">
+        <v>18</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+      <c r="I4" t="n">
+        <v>10</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>309</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="O4" t="n">
+        <v>134</v>
+      </c>
+      <c r="P4" t="n">
+        <v>46</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>15725</v>
+      </c>
+      <c r="R4" t="n">
+        <v>454.59</v>
+      </c>
+      <c r="S4" t="n">
+        <v>26389</v>
+      </c>
+      <c r="T4" t="n">
+        <v>762.86</v>
+      </c>
+      <c r="U4" t="n">
+        <v>28</v>
+      </c>
+      <c r="V4" t="n">
+        <v>44</v>
+      </c>
+      <c r="W4" t="b">
+        <v>1</v>
+      </c>
+      <c r="X4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>646</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>OMb9S_LJfcHcmNf2EeoK6oKVZPN_ilQ_atdZLBHcS-1cNv38UZObF9COSP54dJn9eD4-mP23xpHUug</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>IAMYOURFATHER</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Sion</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>TOP</t>
+        </is>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="G5" t="n">
+        <v>16</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>10</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="M5" t="n">
+        <v>271</v>
+      </c>
+      <c r="N5" t="n">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="O5" t="n">
+        <v>143</v>
+      </c>
+      <c r="P5" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>15481</v>
+      </c>
+      <c r="R5" t="n">
+        <v>512.66</v>
+      </c>
+      <c r="S5" t="n">
+        <v>17039</v>
+      </c>
+      <c r="T5" t="n">
+        <v>564.24</v>
+      </c>
+      <c r="U5" t="n">
+        <v>25</v>
+      </c>
+      <c r="V5" t="n">
+        <v>35</v>
+      </c>
+      <c r="W5" t="b">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>929</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="n">
         <v>0</v>
       </c>
     </row>
